--- a/WebRoot/yonghudaoru/mobanwai.xlsx
+++ b/WebRoot/yonghudaoru/mobanwai.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="360Qex" sheetId="5" state="hidden" r:id="rId1"/>
-    <sheet name="qiye" sheetId="9" r:id="rId2"/>
+    <sheet name="qiye2" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">qiye!$A$1:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">qiye2!$A$1:$G$2</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -480,7 +480,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
